--- a/attachments/推杆伸缩长度计算.xlsx
+++ b/attachments/推杆伸缩长度计算.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongming/Documents/GitHub/feixingchuan_clamshell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongming/Documents/GitHub/feixingchuan_sails/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B03109-A92B-4146-BBC2-8D2F435D34B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B3C6B7-C60A-9D4B-89FC-D1723EA6518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="4000" windowWidth="28240" windowHeight="16400" activeTab="1" xr2:uid="{B048FEED-3DFB-234A-880D-7172E1994D03}"/>
+    <workbookView xWindow="560" yWindow="520" windowWidth="28240" windowHeight="16400" xr2:uid="{B048FEED-3DFB-234A-880D-7172E1994D03}"/>
   </bookViews>
   <sheets>
     <sheet name="200行程版" sheetId="1" r:id="rId1"/>
@@ -422,9 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F9BCCD-82C3-BF42-A70B-348375D00944}">
   <dimension ref="A3:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -797,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF23B3C7-4695-5749-B903-951F3635C9B6}">
   <dimension ref="A3:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
